--- a/Data/2019/teams.xlsx
+++ b/Data/2019/teams.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="teams" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teams" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,8 +361,8 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -425,47 +425,47 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>team_division</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>strength_overall_home</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>strength_overall_away</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>strength_attack_home</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>strength_attack_away</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>strength_attack_home</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>strength_defence_home</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>strength_defence_away</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>strength_defence_home</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>strength_overall_away</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>strength_overall_home</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>team_division</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>unavailable</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>win</t>
         </is>
       </c>
     </row>
@@ -505,30 +505,30 @@
       <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1230</v>
+      </c>
+      <c r="P2" t="n">
         <v>1270</v>
       </c>
-      <c r="M2" t="n">
-        <v>1240</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>1150</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1280</v>
+      </c>
+      <c r="T2" t="n">
         <v>1330</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1290</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1330</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -567,30 +567,30 @@
       <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1040</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1030</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1030</v>
+      </c>
+      <c r="T3" t="n">
         <v>1050</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1070</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1030</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>990</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -629,30 +629,30 @@
       <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1040</v>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="b">
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="P4" t="n">
         <v>1120</v>
       </c>
-      <c r="P4" t="n">
-        <v>1140</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1050</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="b">
-        <v>0</v>
+        <v>1030</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1070</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1110</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5">
@@ -689,32 +689,32 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1140</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1040</v>
+        <v>3</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>1050</v>
       </c>
       <c r="P5" t="n">
-        <v>1070</v>
+        <v>1120</v>
       </c>
       <c r="Q5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="b">
-        <v>0</v>
+        <v>1040</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1160</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1030</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6">
@@ -753,30 +753,30 @@
       <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>1030</v>
-      </c>
-      <c r="M6" t="n">
-        <v>990</v>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>1050</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1060</v>
       </c>
-      <c r="P6" t="n">
-        <v>1090</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1070</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="b">
-        <v>0</v>
+      <c r="R6" t="n">
+        <v>1130</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1050</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7">
@@ -815,30 +815,30 @@
       <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="L7" t="n">
-        <v>1340</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1270</v>
       </c>
-      <c r="N7" t="n">
-        <v>1330</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1280</v>
-      </c>
       <c r="P7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1320</v>
+      </c>
+      <c r="S7" t="n">
         <v>1310</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1280</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8">
@@ -877,30 +877,30 @@
       <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>1180</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1030</v>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>1110</v>
+      </c>
+      <c r="P8" t="n">
         <v>1100</v>
       </c>
-      <c r="P8" t="n">
-        <v>1080</v>
-      </c>
       <c r="Q8" t="n">
+        <v>1060</v>
+      </c>
+      <c r="R8" t="n">
         <v>1130</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="b">
-        <v>0</v>
+      <c r="S8" t="n">
+        <v>1040</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9">
@@ -939,30 +939,30 @@
       <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="L9" t="n">
-        <v>1120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1070</v>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="P9" t="n">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="Q9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="b">
-        <v>0</v>
+        <v>1110</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1090</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="10">
@@ -999,32 +999,32 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1230</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1280</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1180</v>
       </c>
-      <c r="M10" t="n">
-        <v>1130</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
+        <v>1240</v>
+      </c>
+      <c r="S10" t="n">
         <v>1110</v>
       </c>
-      <c r="O10" t="n">
-        <v>1110</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1110</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="11">
@@ -1063,30 +1063,30 @@
       <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1340</v>
+      </c>
+      <c r="P11" t="n">
         <v>1360</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="R11" t="n">
         <v>1330</v>
       </c>
-      <c r="N11" t="n">
-        <v>1360</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1330</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1350</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>1340</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="12">
@@ -1125,30 +1125,30 @@
       <c r="K12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1320</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1270</v>
+      </c>
+      <c r="R12" t="n">
         <v>1330</v>
       </c>
-      <c r="M12" t="n">
-        <v>1320</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="T12" t="n">
         <v>1370</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1340</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1360</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1340</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1187,30 +1187,30 @@
       <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>1260</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1250</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1270</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1310</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1280</v>
+      </c>
+      <c r="T13" t="n">
         <v>1340</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1310</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1330</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1310</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1249,30 +1249,30 @@
       <c r="K14" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
-        <v>1110</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1070</v>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="b">
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="P14" t="n">
         <v>1110</v>
       </c>
       <c r="Q14" t="n">
-        <v>1080</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="b">
-        <v>0</v>
+        <v>1040</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1090</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1020</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15">
@@ -1311,30 +1311,30 @@
       <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1050</v>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1060</v>
+        <v>990</v>
       </c>
       <c r="P15" t="n">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="Q15" t="n">
         <v>990</v>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="b">
-        <v>0</v>
+      <c r="R15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1030</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1080</v>
-      </c>
-      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1140</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1150</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1190</v>
+      </c>
+      <c r="S16" t="n">
         <v>1060</v>
       </c>
-      <c r="N16" t="n">
-        <v>1050</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1030</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1060</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>990</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17">
@@ -1433,32 +1433,32 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1070</v>
-      </c>
-      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1050</v>
+      </c>
+      <c r="P17" t="n">
         <v>1040</v>
       </c>
-      <c r="N17" t="n">
-        <v>1110</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1100</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1090</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1060</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="b">
-        <v>0</v>
+        <v>1010</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1010</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1050</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18">
@@ -1497,30 +1497,30 @@
       <c r="K18" t="n">
         <v>4</v>
       </c>
-      <c r="L18" t="n">
-        <v>1340</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1270</v>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="b">
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1320</v>
+        <v>1240</v>
       </c>
       <c r="P18" t="n">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="Q18" t="n">
-        <v>1320</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="b">
-        <v>0</v>
+        <v>1210</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1290</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1280</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19">
@@ -1559,30 +1559,30 @@
       <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>1100</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1100</v>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="b">
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1070</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1090</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R19" t="n">
         <v>1120</v>
       </c>
-      <c r="O19" t="n">
-        <v>1110</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1110</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1110</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="b">
-        <v>0</v>
+      <c r="S19" t="n">
+        <v>1040</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="20">
@@ -1621,30 +1621,30 @@
       <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1070</v>
+      </c>
+      <c r="P20" t="n">
         <v>1100</v>
       </c>
-      <c r="M20" t="n">
-        <v>1090</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1200</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1080</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1160</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1100</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="b">
-        <v>0</v>
+        <v>1050</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1060</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1120</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="21">
@@ -1683,33 +1683,33 @@
       <c r="K21" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1180</v>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="b">
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1080</v>
+        <v>1130</v>
       </c>
       <c r="P21" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="Q21" t="n">
         <v>1110</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="b">
-        <v>0</v>
+      <c r="R21" t="n">
+        <v>1120</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1080</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>